--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cntf-Lifr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cntf-Lifr.xlsx
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.53189</v>
+        <v>0.4607133333333334</v>
       </c>
       <c r="H2">
-        <v>1.59567</v>
+        <v>1.38214</v>
       </c>
       <c r="I2">
-        <v>0.09379608663636629</v>
+        <v>0.1068584005969239</v>
       </c>
       <c r="J2">
-        <v>0.09379608663636629</v>
+        <v>0.1068584005969239</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>37.78741566666667</v>
+        <v>34.293805</v>
       </c>
       <c r="N2">
-        <v>113.362247</v>
+        <v>102.881415</v>
       </c>
       <c r="O2">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="P2">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="Q2">
-        <v>20.09874851894333</v>
+        <v>15.79961321423333</v>
       </c>
       <c r="R2">
-        <v>180.88873667049</v>
+        <v>142.1965189281</v>
       </c>
       <c r="S2">
-        <v>0.03657523615105444</v>
+        <v>0.03206150671456896</v>
       </c>
       <c r="T2">
-        <v>0.03657523615105444</v>
+        <v>0.03206150671456897</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.53189</v>
+        <v>0.4607133333333334</v>
       </c>
       <c r="H3">
-        <v>1.59567</v>
+        <v>1.38214</v>
       </c>
       <c r="I3">
-        <v>0.09379608663636629</v>
+        <v>0.1068584005969239</v>
       </c>
       <c r="J3">
-        <v>0.09379608663636629</v>
+        <v>0.1068584005969239</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>82.867604</v>
       </c>
       <c r="O3">
-        <v>0.2850484974663402</v>
+        <v>0.2416702056223797</v>
       </c>
       <c r="P3">
-        <v>0.2850484974663403</v>
+        <v>0.2416702056223798</v>
       </c>
       <c r="Q3">
-        <v>14.69214996385333</v>
+        <v>12.72607002139556</v>
       </c>
       <c r="R3">
-        <v>132.22934967468</v>
+        <v>114.53463019256</v>
       </c>
       <c r="S3">
-        <v>0.02673643356391888</v>
+        <v>0.02582449164473722</v>
       </c>
       <c r="T3">
-        <v>0.02673643356391889</v>
+        <v>0.02582449164473722</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.53189</v>
+        <v>0.4607133333333334</v>
       </c>
       <c r="H4">
-        <v>1.59567</v>
+        <v>1.38214</v>
       </c>
       <c r="I4">
-        <v>0.09379608663636629</v>
+        <v>0.1068584005969239</v>
       </c>
       <c r="J4">
-        <v>0.09379608663636629</v>
+        <v>0.1068584005969239</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.205342333333334</v>
+        <v>32.81168366666667</v>
       </c>
       <c r="N4">
-        <v>27.616027</v>
+        <v>98.435051</v>
       </c>
       <c r="O4">
-        <v>0.09499378071000923</v>
+        <v>0.2870701922987834</v>
       </c>
       <c r="P4">
-        <v>0.09499378071000925</v>
+        <v>0.2870701922987835</v>
       </c>
       <c r="Q4">
-        <v>4.896229533676667</v>
+        <v>15.11678015434889</v>
       </c>
       <c r="R4">
-        <v>44.06606580309001</v>
+        <v>136.05102138914</v>
       </c>
       <c r="S4">
-        <v>0.008910044885392007</v>
+        <v>0.03067586160809937</v>
       </c>
       <c r="T4">
-        <v>0.008910044885392009</v>
+        <v>0.03067586160809938</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.53189</v>
+        <v>0.4607133333333334</v>
       </c>
       <c r="H5">
-        <v>1.59567</v>
+        <v>1.38214</v>
       </c>
       <c r="I5">
-        <v>0.09379608663636629</v>
+        <v>0.1068584005969239</v>
       </c>
       <c r="J5">
-        <v>0.09379608663636629</v>
+        <v>0.1068584005969239</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.870543333333333</v>
+        <v>6.520685</v>
       </c>
       <c r="N5">
-        <v>14.61163</v>
+        <v>19.562055</v>
       </c>
       <c r="O5">
-        <v>0.05026117536877379</v>
+        <v>0.05704962646496092</v>
       </c>
       <c r="P5">
-        <v>0.0502611753687738</v>
+        <v>0.05704962646496093</v>
       </c>
       <c r="Q5">
-        <v>2.590593293566666</v>
+        <v>3.004166521966667</v>
       </c>
       <c r="R5">
-        <v>23.3153396421</v>
+        <v>27.03749869770001</v>
       </c>
       <c r="S5">
-        <v>0.004714301559335107</v>
+        <v>0.006096231838697664</v>
       </c>
       <c r="T5">
-        <v>0.004714301559335107</v>
+        <v>0.006096231838697666</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.53189</v>
+        <v>0.4607133333333334</v>
       </c>
       <c r="H6">
-        <v>1.59567</v>
+        <v>1.38214</v>
       </c>
       <c r="I6">
-        <v>0.09379608663636629</v>
+        <v>0.1068584005969239</v>
       </c>
       <c r="J6">
-        <v>0.09379608663636629</v>
+        <v>0.1068584005969239</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.41884833333333</v>
+        <v>13.04976133333333</v>
       </c>
       <c r="N6">
-        <v>52.256545</v>
+        <v>39.14928399999999</v>
       </c>
       <c r="O6">
-        <v>0.1797523871334833</v>
+        <v>0.1141726689026624</v>
       </c>
       <c r="P6">
-        <v>0.1797523871334834</v>
+        <v>0.1141726689026624</v>
       </c>
       <c r="Q6">
-        <v>9.264911240016666</v>
+        <v>6.012199043084443</v>
       </c>
       <c r="R6">
-        <v>83.38420116015</v>
+        <v>54.10979138776</v>
       </c>
       <c r="S6">
-        <v>0.01686007047666586</v>
+        <v>0.01220030879082065</v>
       </c>
       <c r="T6">
-        <v>0.01686007047666586</v>
+        <v>0.01220030879082065</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>3.392853</v>
       </c>
       <c r="I7">
-        <v>0.1994374362696894</v>
+        <v>0.2623141252264423</v>
       </c>
       <c r="J7">
-        <v>0.1994374362696894</v>
+        <v>0.2623141252264423</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>37.78741566666667</v>
+        <v>34.293805</v>
       </c>
       <c r="N7">
-        <v>113.362247</v>
+        <v>102.881415</v>
       </c>
       <c r="O7">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="P7">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="Q7">
-        <v>42.73571553563234</v>
+        <v>38.784613058555</v>
       </c>
       <c r="R7">
-        <v>384.621439820691</v>
+        <v>349.061517526995</v>
       </c>
       <c r="S7">
-        <v>0.07776946342339801</v>
+        <v>0.07870402364524971</v>
       </c>
       <c r="T7">
-        <v>0.07776946342339802</v>
+        <v>0.07870402364524971</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>3.392853</v>
       </c>
       <c r="I8">
-        <v>0.1994374362696894</v>
+        <v>0.2623141252264423</v>
       </c>
       <c r="J8">
-        <v>0.1994374362696894</v>
+        <v>0.2623141252264423</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>82.867604</v>
       </c>
       <c r="O8">
-        <v>0.2850484974663402</v>
+        <v>0.2416702056223797</v>
       </c>
       <c r="P8">
-        <v>0.2850484974663403</v>
+        <v>0.2416702056223798</v>
       </c>
       <c r="Q8">
         <v>31.23973320380134</v>
@@ -948,10 +948,10 @@
         <v>281.157598834212</v>
       </c>
       <c r="S8">
-        <v>0.05684934154721395</v>
+        <v>0.06339350858112897</v>
       </c>
       <c r="T8">
-        <v>0.05684934154721397</v>
+        <v>0.06339350858112898</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>3.392853</v>
       </c>
       <c r="I9">
-        <v>0.1994374362696894</v>
+        <v>0.2623141252264423</v>
       </c>
       <c r="J9">
-        <v>0.1994374362696894</v>
+        <v>0.2623141252264423</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.205342333333334</v>
+        <v>32.81168366666667</v>
       </c>
       <c r="N9">
-        <v>27.616027</v>
+        <v>98.435051</v>
       </c>
       <c r="O9">
-        <v>0.09499378071000923</v>
+        <v>0.2870701922987834</v>
       </c>
       <c r="P9">
-        <v>0.09499378071000925</v>
+        <v>0.2870701922987835</v>
       </c>
       <c r="Q9">
-        <v>10.41079111722567</v>
+        <v>37.10840645450033</v>
       </c>
       <c r="R9">
-        <v>93.69712005503101</v>
+        <v>333.975658090503</v>
       </c>
       <c r="S9">
-        <v>0.01894531608636932</v>
+        <v>0.07530256637144195</v>
       </c>
       <c r="T9">
-        <v>0.01894531608636932</v>
+        <v>0.07530256637144196</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>3.392853</v>
       </c>
       <c r="I10">
-        <v>0.1994374362696894</v>
+        <v>0.2623141252264423</v>
       </c>
       <c r="J10">
-        <v>0.1994374362696894</v>
+        <v>0.2623141252264423</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.870543333333333</v>
+        <v>6.520685</v>
       </c>
       <c r="N10">
-        <v>14.61163</v>
+        <v>19.562055</v>
       </c>
       <c r="O10">
-        <v>0.05026117536877379</v>
+        <v>0.05704962646496092</v>
       </c>
       <c r="P10">
-        <v>0.0502611753687738</v>
+        <v>0.05704962646496093</v>
       </c>
       <c r="Q10">
-        <v>5.508345853376666</v>
+        <v>7.374575221435</v>
       </c>
       <c r="R10">
-        <v>49.57511268039</v>
+        <v>66.37117699291501</v>
       </c>
       <c r="S10">
-        <v>0.01002395995944951</v>
+        <v>0.01496492286065151</v>
       </c>
       <c r="T10">
-        <v>0.01002395995944951</v>
+        <v>0.01496492286065152</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>3.392853</v>
       </c>
       <c r="I11">
-        <v>0.1994374362696894</v>
+        <v>0.2623141252264423</v>
       </c>
       <c r="J11">
-        <v>0.1994374362696894</v>
+        <v>0.2623141252264423</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.41884833333333</v>
+        <v>13.04976133333333</v>
       </c>
       <c r="N11">
-        <v>52.256545</v>
+        <v>39.14928399999999</v>
       </c>
       <c r="O11">
-        <v>0.1797523871334833</v>
+        <v>0.1141726689026624</v>
       </c>
       <c r="P11">
-        <v>0.1797523871334834</v>
+        <v>0.1141726689026624</v>
       </c>
       <c r="Q11">
-        <v>19.69986394143167</v>
+        <v>14.75864062969466</v>
       </c>
       <c r="R11">
-        <v>177.298775472885</v>
+        <v>132.827765667252</v>
       </c>
       <c r="S11">
-        <v>0.03584935525325863</v>
+        <v>0.0299491037679701</v>
       </c>
       <c r="T11">
-        <v>0.03584935525325864</v>
+        <v>0.02994910376797011</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.543123333333333</v>
+        <v>1.908186666666666</v>
       </c>
       <c r="H12">
-        <v>4.62937</v>
+        <v>5.724559999999999</v>
       </c>
       <c r="I12">
-        <v>0.272121923450209</v>
+        <v>0.4425870937250397</v>
       </c>
       <c r="J12">
-        <v>0.272121923450209</v>
+        <v>0.4425870937250397</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>37.78741566666667</v>
+        <v>34.293805</v>
       </c>
       <c r="N12">
-        <v>113.362247</v>
+        <v>102.881415</v>
       </c>
       <c r="O12">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="P12">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="Q12">
-        <v>58.31064282159888</v>
+        <v>65.43898145026665</v>
       </c>
       <c r="R12">
-        <v>524.79578539439</v>
+        <v>588.9508330523998</v>
       </c>
       <c r="S12">
-        <v>0.1061123546727123</v>
+        <v>0.1327926395864043</v>
       </c>
       <c r="T12">
-        <v>0.1061123546727123</v>
+        <v>0.1327926395864043</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.543123333333333</v>
+        <v>1.908186666666666</v>
       </c>
       <c r="H13">
-        <v>4.62937</v>
+        <v>5.724559999999999</v>
       </c>
       <c r="I13">
-        <v>0.272121923450209</v>
+        <v>0.4425870937250397</v>
       </c>
       <c r="J13">
-        <v>0.272121923450209</v>
+        <v>0.4425870937250397</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>82.867604</v>
       </c>
       <c r="O13">
-        <v>0.2850484974663402</v>
+        <v>0.2416702056223797</v>
       </c>
       <c r="P13">
-        <v>0.2850484974663403</v>
+        <v>0.2416702056223798</v>
       </c>
       <c r="Q13">
-        <v>42.62497776994222</v>
+        <v>52.70895235047111</v>
       </c>
       <c r="R13">
-        <v>383.62479992948</v>
+        <v>474.3805711542399</v>
       </c>
       <c r="S13">
-        <v>0.07756794540713254</v>
+        <v>0.1069601139463418</v>
       </c>
       <c r="T13">
-        <v>0.07756794540713255</v>
+        <v>0.1069601139463418</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.543123333333333</v>
+        <v>1.908186666666666</v>
       </c>
       <c r="H14">
-        <v>4.62937</v>
+        <v>5.724559999999999</v>
       </c>
       <c r="I14">
-        <v>0.272121923450209</v>
+        <v>0.4425870937250397</v>
       </c>
       <c r="J14">
-        <v>0.272121923450209</v>
+        <v>0.4425870937250397</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.205342333333334</v>
+        <v>32.81168366666667</v>
       </c>
       <c r="N14">
-        <v>27.616027</v>
+        <v>98.435051</v>
       </c>
       <c r="O14">
-        <v>0.09499378071000923</v>
+        <v>0.2870701922987834</v>
       </c>
       <c r="P14">
-        <v>0.09499378071000925</v>
+        <v>0.2870701922987835</v>
       </c>
       <c r="Q14">
-        <v>14.20497854588778</v>
+        <v>62.61081728361777</v>
       </c>
       <c r="R14">
-        <v>127.84480691299</v>
+        <v>563.49735555256</v>
       </c>
       <c r="S14">
-        <v>0.02584989032261507</v>
+        <v>0.1270535621046069</v>
       </c>
       <c r="T14">
-        <v>0.02584989032261508</v>
+        <v>0.1270535621046069</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.543123333333333</v>
+        <v>1.908186666666666</v>
       </c>
       <c r="H15">
-        <v>4.62937</v>
+        <v>5.724559999999999</v>
       </c>
       <c r="I15">
-        <v>0.272121923450209</v>
+        <v>0.4425870937250397</v>
       </c>
       <c r="J15">
-        <v>0.272121923450209</v>
+        <v>0.4425870937250397</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.870543333333333</v>
+        <v>6.520685</v>
       </c>
       <c r="N15">
-        <v>14.61163</v>
+        <v>19.562055</v>
       </c>
       <c r="O15">
-        <v>0.05026117536877379</v>
+        <v>0.05704962646496092</v>
       </c>
       <c r="P15">
-        <v>0.0502611753687738</v>
+        <v>0.05704962646496093</v>
       </c>
       <c r="Q15">
-        <v>7.515849063677776</v>
+        <v>12.44268417453333</v>
       </c>
       <c r="R15">
-        <v>67.64264157309999</v>
+        <v>111.9841575708</v>
       </c>
       <c r="S15">
-        <v>0.01367716771621899</v>
+        <v>0.02524942837522617</v>
       </c>
       <c r="T15">
-        <v>0.013677167716219</v>
+        <v>0.02524942837522617</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.543123333333333</v>
+        <v>1.908186666666666</v>
       </c>
       <c r="H16">
-        <v>4.62937</v>
+        <v>5.724559999999999</v>
       </c>
       <c r="I16">
-        <v>0.272121923450209</v>
+        <v>0.4425870937250397</v>
       </c>
       <c r="J16">
-        <v>0.272121923450209</v>
+        <v>0.4425870937250397</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.41884833333333</v>
+        <v>13.04976133333333</v>
       </c>
       <c r="N16">
-        <v>52.256545</v>
+        <v>39.14928399999999</v>
       </c>
       <c r="O16">
-        <v>0.1797523871334833</v>
+        <v>0.1141726689026624</v>
       </c>
       <c r="P16">
-        <v>0.1797523871334834</v>
+        <v>0.1141726689026624</v>
       </c>
       <c r="Q16">
-        <v>26.87943130296111</v>
+        <v>24.90138057944888</v>
       </c>
       <c r="R16">
-        <v>241.91488172665</v>
+        <v>224.1124252150399</v>
       </c>
       <c r="S16">
-        <v>0.0489145653315301</v>
+        <v>0.05053134971246055</v>
       </c>
       <c r="T16">
-        <v>0.0489145653315301</v>
+        <v>0.05053134971246057</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.8319256666666667</v>
+        <v>0.632459</v>
       </c>
       <c r="H17">
-        <v>2.495777</v>
+        <v>1.897377</v>
       </c>
       <c r="I17">
-        <v>0.1467058450162317</v>
+        <v>0.1466932955774304</v>
       </c>
       <c r="J17">
-        <v>0.1467058450162317</v>
+        <v>0.1466932955774304</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>37.78741566666667</v>
+        <v>34.293805</v>
       </c>
       <c r="N17">
-        <v>113.362247</v>
+        <v>102.881415</v>
       </c>
       <c r="O17">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="P17">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="Q17">
-        <v>31.43632097010211</v>
+        <v>21.689425616495</v>
       </c>
       <c r="R17">
-        <v>282.926888730919</v>
+        <v>195.204830548455</v>
       </c>
       <c r="S17">
-        <v>0.05720708740238908</v>
+        <v>0.04401346131764416</v>
       </c>
       <c r="T17">
-        <v>0.05720708740238909</v>
+        <v>0.04401346131764418</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.8319256666666667</v>
+        <v>0.632459</v>
       </c>
       <c r="H18">
-        <v>2.495777</v>
+        <v>1.897377</v>
       </c>
       <c r="I18">
-        <v>0.1467058450162317</v>
+        <v>0.1466932955774304</v>
       </c>
       <c r="J18">
-        <v>0.1467058450162317</v>
+        <v>0.1466932955774304</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>82.867604</v>
       </c>
       <c r="O18">
-        <v>0.2850484974663402</v>
+        <v>0.2416702056223797</v>
       </c>
       <c r="P18">
-        <v>0.2850484974663403</v>
+        <v>0.2416702056223798</v>
       </c>
       <c r="Q18">
-        <v>22.97989556758978</v>
+        <v>17.47012065274533</v>
       </c>
       <c r="R18">
-        <v>206.819060108308</v>
+        <v>157.231085874708</v>
       </c>
       <c r="S18">
-        <v>0.0418182806914066</v>
+        <v>0.03545139890562212</v>
       </c>
       <c r="T18">
-        <v>0.04181828069140662</v>
+        <v>0.03545139890562213</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.8319256666666667</v>
+        <v>0.632459</v>
       </c>
       <c r="H19">
-        <v>2.495777</v>
+        <v>1.897377</v>
       </c>
       <c r="I19">
-        <v>0.1467058450162317</v>
+        <v>0.1466932955774304</v>
       </c>
       <c r="J19">
-        <v>0.1467058450162317</v>
+        <v>0.1466932955774304</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>9.205342333333334</v>
+        <v>32.81168366666667</v>
       </c>
       <c r="N19">
-        <v>27.616027</v>
+        <v>98.435051</v>
       </c>
       <c r="O19">
-        <v>0.09499378071000923</v>
+        <v>0.2870701922987834</v>
       </c>
       <c r="P19">
-        <v>0.09499378071000925</v>
+        <v>0.2870701922987835</v>
       </c>
       <c r="Q19">
-        <v>7.658160557553223</v>
+        <v>20.75204464013633</v>
       </c>
       <c r="R19">
-        <v>68.92344501797901</v>
+        <v>186.768401761227</v>
       </c>
       <c r="S19">
-        <v>0.01393614287034851</v>
+        <v>0.04211127257035521</v>
       </c>
       <c r="T19">
-        <v>0.01393614287034851</v>
+        <v>0.04211127257035523</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.8319256666666667</v>
+        <v>0.632459</v>
       </c>
       <c r="H20">
-        <v>2.495777</v>
+        <v>1.897377</v>
       </c>
       <c r="I20">
-        <v>0.1467058450162317</v>
+        <v>0.1466932955774304</v>
       </c>
       <c r="J20">
-        <v>0.1467058450162317</v>
+        <v>0.1466932955774304</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.870543333333333</v>
+        <v>6.520685</v>
       </c>
       <c r="N20">
-        <v>14.61163</v>
+        <v>19.562055</v>
       </c>
       <c r="O20">
-        <v>0.05026117536877379</v>
+        <v>0.05704962646496092</v>
       </c>
       <c r="P20">
-        <v>0.0502611753687738</v>
+        <v>0.05704962646496093</v>
       </c>
       <c r="Q20">
-        <v>4.051930009612222</v>
+        <v>4.124065914415</v>
       </c>
       <c r="R20">
-        <v>36.46737008651</v>
+        <v>37.116593229735</v>
       </c>
       <c r="S20">
-        <v>0.007373608203984968</v>
+        <v>0.008368797717606506</v>
       </c>
       <c r="T20">
-        <v>0.007373608203984969</v>
+        <v>0.008368797717606508</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.8319256666666667</v>
+        <v>0.632459</v>
       </c>
       <c r="H21">
-        <v>2.495777</v>
+        <v>1.897377</v>
       </c>
       <c r="I21">
-        <v>0.1467058450162317</v>
+        <v>0.1466932955774304</v>
       </c>
       <c r="J21">
-        <v>0.1467058450162317</v>
+        <v>0.1466932955774304</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>17.41884833333333</v>
+        <v>13.04976133333333</v>
       </c>
       <c r="N21">
-        <v>52.256545</v>
+        <v>39.14928399999999</v>
       </c>
       <c r="O21">
-        <v>0.1797523871334833</v>
+        <v>0.1141726689026624</v>
       </c>
       <c r="P21">
-        <v>0.1797523871334834</v>
+        <v>0.1141726689026624</v>
       </c>
       <c r="Q21">
-        <v>14.49118701227389</v>
+        <v>8.253439003118665</v>
       </c>
       <c r="R21">
-        <v>130.420683110465</v>
+        <v>74.28095102806799</v>
       </c>
       <c r="S21">
-        <v>0.02637072584810248</v>
+        <v>0.01674836506620234</v>
       </c>
       <c r="T21">
-        <v>0.02637072584810249</v>
+        <v>0.01674836506620235</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>1.632815666666667</v>
+        <v>0.1791276666666667</v>
       </c>
       <c r="H22">
-        <v>4.898447</v>
+        <v>0.5373830000000001</v>
       </c>
       <c r="I22">
-        <v>0.2879387086275035</v>
+        <v>0.04154708487416379</v>
       </c>
       <c r="J22">
-        <v>0.2879387086275035</v>
+        <v>0.04154708487416379</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>37.78741566666667</v>
+        <v>34.293805</v>
       </c>
       <c r="N22">
-        <v>113.362247</v>
+        <v>102.881415</v>
       </c>
       <c r="O22">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="P22">
-        <v>0.3899441593213934</v>
+        <v>0.3000373067112135</v>
       </c>
       <c r="Q22">
-        <v>61.69988430337878</v>
+        <v>6.142969270771667</v>
       </c>
       <c r="R22">
-        <v>555.298958730409</v>
+        <v>55.286723436945</v>
       </c>
       <c r="S22">
-        <v>0.1122800176718395</v>
+        <v>0.0124656754473463</v>
       </c>
       <c r="T22">
-        <v>0.1122800176718395</v>
+        <v>0.0124656754473463</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>1.632815666666667</v>
+        <v>0.1791276666666667</v>
       </c>
       <c r="H23">
-        <v>4.898447</v>
+        <v>0.5373830000000001</v>
       </c>
       <c r="I23">
-        <v>0.2879387086275035</v>
+        <v>0.04154708487416379</v>
       </c>
       <c r="J23">
-        <v>0.2879387086275035</v>
+        <v>0.04154708487416379</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>82.867604</v>
       </c>
       <c r="O23">
-        <v>0.2850484974663402</v>
+        <v>0.2416702056223797</v>
       </c>
       <c r="P23">
-        <v>0.2850484974663403</v>
+        <v>0.2416702056223798</v>
       </c>
       <c r="Q23">
-        <v>45.10250735677644</v>
+        <v>4.947960182259112</v>
       </c>
       <c r="R23">
-        <v>405.922566210988</v>
+        <v>44.531641640332</v>
       </c>
       <c r="S23">
-        <v>0.08207649625666821</v>
+        <v>0.01004069254454962</v>
       </c>
       <c r="T23">
-        <v>0.08207649625666823</v>
+        <v>0.01004069254454963</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>1.632815666666667</v>
+        <v>0.1791276666666667</v>
       </c>
       <c r="H24">
-        <v>4.898447</v>
+        <v>0.5373830000000001</v>
       </c>
       <c r="I24">
-        <v>0.2879387086275035</v>
+        <v>0.04154708487416379</v>
       </c>
       <c r="J24">
-        <v>0.2879387086275035</v>
+        <v>0.04154708487416379</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>9.205342333333334</v>
+        <v>32.81168366666667</v>
       </c>
       <c r="N24">
-        <v>27.616027</v>
+        <v>98.435051</v>
       </c>
       <c r="O24">
-        <v>0.09499378071000923</v>
+        <v>0.2870701922987834</v>
       </c>
       <c r="P24">
-        <v>0.09499378071000925</v>
+        <v>0.2870701922987835</v>
       </c>
       <c r="Q24">
-        <v>15.03062717889656</v>
+        <v>5.877480334614779</v>
       </c>
       <c r="R24">
-        <v>135.275644610069</v>
+        <v>52.897323011533</v>
       </c>
       <c r="S24">
-        <v>0.02735238654528431</v>
+        <v>0.01192692964428007</v>
       </c>
       <c r="T24">
-        <v>0.02735238654528432</v>
+        <v>0.01192692964428008</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>1.632815666666667</v>
+        <v>0.1791276666666667</v>
       </c>
       <c r="H25">
-        <v>4.898447</v>
+        <v>0.5373830000000001</v>
       </c>
       <c r="I25">
-        <v>0.2879387086275035</v>
+        <v>0.04154708487416379</v>
       </c>
       <c r="J25">
-        <v>0.2879387086275035</v>
+        <v>0.04154708487416379</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.870543333333333</v>
+        <v>6.520685</v>
       </c>
       <c r="N25">
-        <v>14.61163</v>
+        <v>19.562055</v>
       </c>
       <c r="O25">
-        <v>0.05026117536877379</v>
+        <v>0.05704962646496092</v>
       </c>
       <c r="P25">
-        <v>0.0502611753687738</v>
+        <v>0.05704962646496093</v>
       </c>
       <c r="Q25">
-        <v>7.952699459845555</v>
+        <v>1.168035089118334</v>
       </c>
       <c r="R25">
-        <v>71.57429513861</v>
+        <v>10.512315802065</v>
       </c>
       <c r="S25">
-        <v>0.01447213792978522</v>
+        <v>0.002370245672779072</v>
       </c>
       <c r="T25">
-        <v>0.01447213792978522</v>
+        <v>0.002370245672779072</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>1.632815666666667</v>
+        <v>0.1791276666666667</v>
       </c>
       <c r="H26">
-        <v>4.898447</v>
+        <v>0.5373830000000001</v>
       </c>
       <c r="I26">
-        <v>0.2879387086275035</v>
+        <v>0.04154708487416379</v>
       </c>
       <c r="J26">
-        <v>0.2879387086275035</v>
+        <v>0.04154708487416379</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>17.41884833333333</v>
+        <v>13.04976133333333</v>
       </c>
       <c r="N26">
-        <v>52.256545</v>
+        <v>39.14928399999999</v>
       </c>
       <c r="O26">
-        <v>0.1797523871334833</v>
+        <v>0.1141726689026624</v>
       </c>
       <c r="P26">
-        <v>0.1797523871334834</v>
+        <v>0.1141726689026624</v>
       </c>
       <c r="Q26">
-        <v>28.44176845395722</v>
+        <v>2.337573298196889</v>
       </c>
       <c r="R26">
-        <v>255.975916085615</v>
+        <v>21.038159683772</v>
       </c>
       <c r="S26">
-        <v>0.05175767022392628</v>
+        <v>0.004743541565208714</v>
       </c>
       <c r="T26">
-        <v>0.05175767022392629</v>
+        <v>0.004743541565208714</v>
       </c>
     </row>
   </sheetData>
